--- a/src/main/resources/static/offical_recode.xlsx
+++ b/src/main/resources/static/offical_recode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OA\branch-dev\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE4F35-E663-4962-91B6-C4D6A14B37A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E0038-F2BC-4950-806C-935A96982A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12707" yWindow="-733" windowWidth="20186" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,14 +133,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="13.5"/>
@@ -459,21 +462,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -492,13 +495,13 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
@@ -507,134 +510,309 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D11:H11"/>
+  <mergeCells count="27">
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D6:H6"/>
@@ -642,6 +820,11 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D11:H11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,6 +856,6 @@
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>